--- a/Results/template_final.xlsx
+++ b/Results/template_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34b6dee9d188c71f/CV/Github/Templater/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34b6dee9d188c71f/CV/Github/Templater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{EA53417A-377D-45BB-8680-B702EF9A8485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FA1822F-F0DF-48B2-BE23-0C38103ADFE3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E6CBF5C0596C742BC325C1FEDAF432A350F682EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15285" yWindow="1350" windowWidth="21600" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6735" yWindow="2025" windowWidth="21600" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -56,19 +56,19 @@
     <t>Su</t>
   </si>
   <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Kati</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Britt</t>
+  </si>
+  <si>
     <t>Josh</t>
-  </si>
-  <si>
-    <t>Britt</t>
-  </si>
-  <si>
-    <t>Kati</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Megan</t>
   </si>
   <si>
     <t>Day 2 Shifts</t>
@@ -129,20 +129,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -172,12 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +478,7 @@
   <dimension ref="A2:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,17 +494,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -551,17 +545,17 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -569,25 +563,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -595,25 +589,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -621,25 +615,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -647,25 +641,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -676,36 +670,36 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -738,10 +732,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -750,13 +744,13 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -764,16 +758,16 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -781,22 +775,22 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -804,19 +798,19 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
+      <c r="F18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -824,22 +818,22 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -850,30 +844,30 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -909,7 +903,7 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -935,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
@@ -961,22 +955,22 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -984,19 +978,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
@@ -1010,13 +1004,13 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
         <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
@@ -1039,7 +1033,7 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -1058,14 +1052,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1109,7 +1103,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>216</v>
@@ -1121,15 +1115,15 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>108</v>
@@ -1149,7 +1143,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>216</v>
@@ -1169,7 +1163,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
         <v>216</v>
@@ -1181,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,15 +1195,15 @@
         <v>18</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>216</v>
@@ -1316,21 +1310,21 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
       <c r="I4">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
@@ -1340,14 +1334,14 @@
         <v>25</v>
       </c>
       <c r="I5">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
@@ -1426,14 +1420,17 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
       <c r="I2">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1446,11 +1443,8 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
       <c r="I3">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1460,7 +1454,7 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" t="s">
@@ -1474,7 +1468,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
@@ -1508,11 +1502,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" t="s">
         <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1567,7 +1561,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="G2" t="s">
@@ -1606,8 +1600,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
       <c r="I5">
         <v>12</v>
@@ -1618,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -1684,13 +1678,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="I2">
@@ -1701,13 +1695,13 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="I3">
@@ -1719,16 +1713,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>48</v>
@@ -1738,10 +1732,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="I5">
@@ -1752,10 +1746,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="I6">
@@ -1766,11 +1760,11 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1828,13 +1822,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="I2">
@@ -1845,14 +1839,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>36</v>
@@ -1862,13 +1856,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
       <c r="I4">
@@ -1879,14 +1873,14 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>36</v>
@@ -1902,7 +1896,7 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="I6">
@@ -1913,13 +1907,13 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="I7">
@@ -2006,13 +2000,13 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="I4">
@@ -2026,10 +2020,10 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="I5">
@@ -2040,7 +2034,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
@@ -2116,17 +2110,14 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
       <c r="I2">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2134,6 +2125,9 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="G3" t="s">
@@ -2143,21 +2137,24 @@
         <v>27</v>
       </c>
       <c r="I3">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
+      <c r="D4" t="s">
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2165,19 +2162,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
+      <c r="D5" t="s">
+        <v>26</v>
       </c>
       <c r="I5">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2185,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2201,7 +2195,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">
